--- a/biology/Botanique/Lotus_(architecture)/Lotus_(architecture).xlsx
+++ b/biology/Botanique/Lotus_(architecture)/Lotus_(architecture).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lotus est un motif architectural d'ornementation et aussi un élément de structuration d'édifices sacrés dans l'architecture orientale, inspirés par la plante du même nom, notamment le lotus sacré (Nelumbo nucifera).
 La représentation du lotus est devenue dans ces régions un élément architectural symbole de pureté.
